--- a/Drug lists/GLP1DrugNames.xlsx
+++ b/Drug lists/GLP1DrugNames.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD work\clinpath_CT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD work\clinpath_CT\Drug lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0517C2E0-B02F-484B-907A-ABD02A356297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2917570-F7DD-44A4-A6E1-D41D8A180EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5AE22A18-F68A-4067-8F1D-B484DE359287}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" xr2:uid="{5AE22A18-F68A-4067-8F1D-B484DE359287}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Efpeglenatide</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Drug Names</t>
+  </si>
+  <si>
+    <t>trulicity(4)</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F23B9D-8D31-44B5-A620-BF3997687EF5}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,6 +626,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A26">
     <sortCondition ref="A2:A26"/>
